--- a/casos de uso/caso 1/caso1.xlsx
+++ b/casos de uso/caso 1/caso1.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>Tipo de item</t>
   </si>
@@ -150,12 +150,6 @@
     <t>DM-0005</t>
   </si>
   <si>
-    <t>Tarefa prazo</t>
-  </si>
-  <si>
-    <t>Tarefa atrasado</t>
-  </si>
-  <si>
     <t>Reunião</t>
   </si>
   <si>
@@ -165,21 +159,9 @@
     <t>DM-0006</t>
   </si>
   <si>
-    <t>Tarefa acelerou</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
-    <t>Bug eficiente</t>
-  </si>
-  <si>
-    <t>Bug aceitavel</t>
-  </si>
-  <si>
-    <t>Bug ineficiente</t>
-  </si>
-  <si>
     <t>DM-0007</t>
   </si>
   <si>
@@ -195,15 +177,9 @@
     <t>DM-0010</t>
   </si>
   <si>
-    <t>Tarefa Hora extra</t>
-  </si>
-  <si>
     <t>DM-0011</t>
   </si>
   <si>
-    <t>Tarefa no prazo cruzando sprints</t>
-  </si>
-  <si>
     <t>DSComercial</t>
   </si>
   <si>
@@ -262,6 +238,36 @@
   </si>
   <si>
     <t>Campo personalizado (Detalhes Ocultos)_1</t>
+  </si>
+  <si>
+    <t>Bug aceitavel, alta qualidade e complexidade 1</t>
+  </si>
+  <si>
+    <t>Bug ineficiente, alta qualidade e compexidade 1</t>
+  </si>
+  <si>
+    <t>Bug eficiente, alta qualidade e complexidade 3 - elegivel competencia</t>
+  </si>
+  <si>
+    <t>Tarefa atrasado, qualidade media e complexidade 1</t>
+  </si>
+  <si>
+    <t>Tarefa eficiente, qualidade media e complexidade 3</t>
+  </si>
+  <si>
+    <t>Tarefa eficiente, alta qualidade e complexidade 4 - elegivel senioridade</t>
+  </si>
+  <si>
+    <t>Bug eficiente, alta qualidade e complexidade 4 - elegivel senioridade</t>
+  </si>
+  <si>
+    <t>DM-0012</t>
+  </si>
+  <si>
+    <t>Tarefa Hora extra eficiente, alta qualidade e complexidade 1</t>
+  </si>
+  <si>
+    <t>Tarefa cruzando sprints, eficiente alta qualidade e complexidade 3 - elegivel competencia</t>
   </si>
 </sst>
 </file>
@@ -277,12 +283,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -297,10 +315,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,7 +632,7 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
@@ -676,13 +698,13 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S1" t="s">
         <v>16</v>
@@ -705,7 +727,7 @@
         <v>26004</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -732,77 +754,77 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>26004</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>45961.543749999997</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>7200</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3">
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="3">
         <v>4</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -817,7 +839,7 @@
         <v>26004</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -844,13 +866,13 @@
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -897,13 +919,13 @@
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -923,7 +945,7 @@
         <v>26004</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -950,13 +972,13 @@
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -970,13 +992,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>26004</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1003,86 +1025,86 @@
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:21" s="5" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5">
+        <v>26004</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45961.543749999997</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7200</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
-        <v>26004</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>45961.543749999997</v>
-      </c>
-      <c r="H8">
-        <v>7200</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8">
+      <c r="T8" s="5">
         <v>4</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>26004</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1109,13 +1131,13 @@
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -1126,16 +1148,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
       </c>
       <c r="C10">
         <v>26004</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1162,13 +1184,13 @@
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="T10">
         <v>4</v>
@@ -1179,16 +1201,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>26004</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1215,82 +1237,132 @@
         <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
         <v>57</v>
       </c>
-      <c r="O11" t="s">
-        <v>65</v>
-      </c>
       <c r="Q11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
+    <row r="12" spans="1:21" s="5" customFormat="1">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5">
+        <v>26004</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45961.543749999997</v>
+      </c>
+      <c r="H12" s="5">
+        <v>14400</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="5">
+        <v>5</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3">
+        <v>26004</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45961.543749999997</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12">
-        <v>26004</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45961.543749999997</v>
-      </c>
-      <c r="H12">
-        <v>14400</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" t="s">
-        <v>66</v>
-      </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="O13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="3">
+        <v>4</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:21">
       <c r="G14" s="1"/>
